--- a/文案/魔素系統Sorcery_System.xlsx
+++ b/文案/魔素系統Sorcery_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21333F1E-9788-4A35-A02F-2FE8A82B31B1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934A287B-0215-4EAC-9784-7FFFF4DC4FF2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,12 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LV4：
-Debuff｛暴露［直接吸引整地圖的小怪］＋掉血＋緩速＋干擾｝
-Buff｛攻擊力ｘ2N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LV5：
 Debuff｛死亡｝</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -668,6 +662,12 @@
   </si>
   <si>
     <t>魔素天賦成長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LV4：
+Debuff｛暴露［直接吸引整地圖的小怪］＋掉血＋緩速＋干擾｝
+Buff｛攻擊力ｘ2N｝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1084,33 +1084,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1138,45 +1111,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1186,7 +1187,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1470,8 +1470,8 @@
   <dimension ref="C1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1493,43 +1493,43 @@
       <c r="E3" s="30"/>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="9" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1540,7 +1540,7 @@
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1551,7 +1551,7 @@
       </c>
     </row>
     <row r="14" spans="3:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="22" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1562,7 +1562,7 @@
       </c>
     </row>
     <row r="15" spans="3:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1573,7 +1573,7 @@
       </c>
     </row>
     <row r="16" spans="3:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1585,161 +1585,161 @@
     </row>
     <row r="18" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="C21" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="C21" s="38" t="s">
+      <c r="D21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="3:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="C22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="3:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="C22" s="38" t="s">
+      <c r="D22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C23" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C23" s="38" t="s">
+    </row>
+    <row r="24" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C24" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C24" s="40" t="s">
-        <v>45</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="27" t="s">
         <v>29</v>
       </c>
+      <c r="E24" s="40" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C25" s="41"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C26" s="41"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="27"/>
+        <v>30</v>
+      </c>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C27" s="41"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="40"/>
+    </row>
+    <row r="28" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C28" s="43"/>
+      <c r="D28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="28" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C28" s="42"/>
-      <c r="D28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="27"/>
+      <c r="E28" s="40"/>
     </row>
     <row r="29" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="22" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="18"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="39"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="20"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="32" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
+      <c r="C33" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="27"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="3:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="3:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C37" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="24" t="s">
+      <c r="D37" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="3:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C37" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="25" t="s">
+      <c r="E37" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="26" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="38" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="43"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/文案/魔素系統Sorcery_System.xlsx
+++ b/文案/魔素系統Sorcery_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934A287B-0215-4EAC-9784-7FFFF4DC4FF2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41205BF-A6E6-4665-B2D3-AAEC4EEB84B9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,9 @@
     <sheet name="魔素系統概述" sheetId="1" r:id="rId1"/>
     <sheet name="魔素戰鬥" sheetId="2" r:id="rId2"/>
     <sheet name="魔素天賦成長" sheetId="3" r:id="rId3"/>
-    <sheet name="魔素道具" sheetId="4" r:id="rId4"/>
+    <sheet name="三女成長系統介面" sheetId="5" r:id="rId4"/>
+    <sheet name="魔素歷程" sheetId="6" r:id="rId5"/>
+    <sheet name="魔素道具" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -283,56 +285,6 @@
   </si>
   <si>
     <r>
-      <t>因為有些</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>互動要素(任務、機關、特定怪物、要能對BOSS某狀態造成傷害等等……)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的條件是需要</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>魔素超載</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>到一定等級。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>LV1：
 Debuff｛干擾［每20秒一個</t>
     </r>
@@ -505,48 +457,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.以類似魔物獵人充能斧的瓶數般的數量簡約量化。
-2.一個瓶用小蓄力需要打三次才滿，一套</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>強化軍刀迅斬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>消耗一個瓶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。
-3.可到三女那升級增加瓶數上限
-4.超載瓶數會以另外一種凸顯樣式顯示在UI上（顏色不一樣啊，或樣式不一樣等）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -668,6 +578,148 @@
     <t>LV4：
 Debuff｛暴露［直接吸引整地圖的小怪］＋掉血＋緩速＋干擾｝
 Buff｛攻擊力ｘ2N｝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.以類似魔物獵人充能斧的瓶數般的數量簡約量化。
+2.一個瓶用小蓄力需要打三次才滿，一套</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>強化軍刀迅斬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消耗一個瓶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+3.可到三女那升級增加瓶數上限（分為</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正常上限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>及</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>超載上限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+4.超載瓶數會以另外一種凸顯樣式顯示在UI上（顏色不一樣啊，或樣式不一樣等）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>因為有些</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>互動要素(任務、機關、特定怪物、要能對BOSS某狀態造成傷害等等……)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的條件是需要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>魔素超載</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到一定等級。
+1.超載上限等級LV1
+魔素超載到LV3立即死亡
+2.超載上限等級LV2
+魔素超載到LV4立即死亡
+3.超載上限等級LV3
+魔素超載到LV5立即死亡</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -767,7 +819,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1064,11 +1116,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1130,6 +1208,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1186,6 +1267,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1467,11 +1554,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:F38"/>
+  <dimension ref="C1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1486,36 +1573,36 @@
     <row r="1" spans="3:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="9" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" s="18" t="s">
@@ -1585,11 +1672,11 @@
     </row>
     <row r="18" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
+      <c r="C19" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="18" t="s">
@@ -1604,7 +1691,7 @@
     </row>
     <row r="21" spans="3:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="C21" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>23</v>
@@ -1616,63 +1703,63 @@
     </row>
     <row r="22" spans="3:6" ht="63" x14ac:dyDescent="0.25">
       <c r="C22" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C23" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="24" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C24" s="41" t="s">
-        <v>44</v>
+      <c r="C24" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="40" t="s">
         <v>28</v>
       </c>
+      <c r="E24" s="41" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C25" s="42"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="40"/>
+      <c r="E25" s="41"/>
     </row>
     <row r="26" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C26" s="42"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="40"/>
+        <v>29</v>
+      </c>
+      <c r="E26" s="41"/>
     </row>
     <row r="27" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C27" s="42"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="40"/>
+        <v>44</v>
+      </c>
+      <c r="E27" s="41"/>
     </row>
     <row r="28" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C28" s="43"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="40"/>
+      <c r="E28" s="41"/>
     </row>
     <row r="29" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C29" s="22" t="s">
@@ -1690,11 +1777,11 @@
     </row>
     <row r="32" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
+      <c r="C33" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="18" t="s">
@@ -1712,34 +1799,39 @@
         <v>21</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="3:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C37" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="24"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="25"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="46"/>
+    </row>
+    <row r="39" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="24"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1786,11 +1878,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A5EE33-9614-4114-A976-A2FBC7C0753C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B5912E-3324-43F8-BC34-A08A787FCF45}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670FF69D-E74B-4745-B133-C8DE114607A6}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/文案/魔素系統Sorcery_System.xlsx
+++ b/文案/魔素系統Sorcery_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41205BF-A6E6-4665-B2D3-AAEC4EEB84B9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6E74FC-5C13-49B4-B84F-DE518A7F4341}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,11 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LV5：
-Debuff｛死亡｝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>LV1：
 Debuff｛干擾［每20秒一個</t>
@@ -578,92 +573,6 @@
     <t>LV4：
 Debuff｛暴露［直接吸引整地圖的小怪］＋掉血＋緩速＋干擾｝
 Buff｛攻擊力ｘ2N｝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.以類似魔物獵人充能斧的瓶數般的數量簡約量化。
-2.一個瓶用小蓄力需要打三次才滿，一套</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>強化軍刀迅斬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>消耗一個瓶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。
-3.可到三女那升級增加瓶數上限（分為</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>正常上限</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>及</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>超載上限</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）
-4.超載瓶數會以另外一種凸顯樣式顯示在UI上（顏色不一樣啊，或樣式不一樣等）</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -719,6 +628,133 @@
 魔素超載到LV4立即死亡
 3.超載上限等級LV3
 魔素超載到LV5立即死亡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.以類似魔物獵人充能斧的瓶數般的數量簡約量化。
+2.一個瓶用小蓄力需要打三次才滿，一套</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>強化軍刀迅斬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消耗一個瓶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+3.可到三女那升級增加瓶數上限（分為</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正常上限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>及</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>超載上限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+4.超載瓶數會以另外一種凸顯樣式顯示在UI上（顏色不一樣啊，或圖案不一樣等）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LV5：
+Debuff｛死亡［</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>惡意入侵主角自殺動作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>］</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>｝</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1211,6 +1247,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1267,12 +1309,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1573,36 +1609,36 @@
     <row r="1" spans="3:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="9" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" s="18" t="s">
@@ -1672,11 +1708,11 @@
     </row>
     <row r="18" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
+      <c r="C19" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="18" t="s">
@@ -1691,7 +1727,7 @@
     </row>
     <row r="21" spans="3:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="C21" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>23</v>
@@ -1703,7 +1739,7 @@
     </row>
     <row r="22" spans="3:6" ht="63" x14ac:dyDescent="0.25">
       <c r="C22" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>45</v>
@@ -1713,53 +1749,53 @@
     </row>
     <row r="23" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C23" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C24" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C24" s="42" t="s">
-        <v>42</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>46</v>
+        <v>27</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C25" s="43"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="41"/>
+      <c r="E25" s="43"/>
     </row>
     <row r="26" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C26" s="43"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="41"/>
+        <v>28</v>
+      </c>
+      <c r="E26" s="43"/>
     </row>
     <row r="27" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C27" s="43"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="41"/>
+        <v>43</v>
+      </c>
+      <c r="E27" s="43"/>
     </row>
     <row r="28" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C28" s="44"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="E28" s="43"/>
     </row>
     <row r="29" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C29" s="22" t="s">
@@ -1777,11 +1813,11 @@
     </row>
     <row r="32" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
+      <c r="C33" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="18" t="s">
@@ -1799,34 +1835,34 @@
         <v>21</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="3:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C37" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" s="25"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="46"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="27"/>
     </row>
     <row r="39" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="24"/>

--- a/文案/魔素系統Sorcery_System.xlsx
+++ b/文案/魔素系統Sorcery_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6E74FC-5C13-49B4-B84F-DE518A7F4341}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD624AD-1264-4C1A-B1C9-65C2CED46D19}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -855,7 +855,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1152,37 +1152,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1244,15 +1218,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1590,11 +1555,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:F39"/>
+  <dimension ref="C1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24:E28"/>
+      <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1609,36 +1574,36 @@
     <row r="1" spans="3:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="9" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" s="18" t="s">
@@ -1708,11 +1673,11 @@
     </row>
     <row r="18" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="18" t="s">
@@ -1759,43 +1724,43 @@
       </c>
     </row>
     <row r="24" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="41" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="40" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C25" s="45"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C26" s="45"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C27" s="45"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="43"/>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C28" s="46"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="43"/>
+      <c r="E28" s="40"/>
     </row>
     <row r="29" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C29" s="22" t="s">
@@ -1813,11 +1778,11 @@
     </row>
     <row r="32" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="27"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="18" t="s">
@@ -1859,15 +1824,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="25"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="27"/>
-    </row>
-    <row r="39" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="24"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
+    <row r="38" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="24"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/文案/魔素系統Sorcery_System.xlsx
+++ b/文案/魔素系統Sorcery_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD624AD-1264-4C1A-B1C9-65C2CED46D19}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7831282-5E88-4A7B-96F5-DE4917107E8F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,11 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>方案一：攻擊會彈刀
-方案二：瘟疫毒素狀態（掉血）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LV2：
 Debuff｛緩速＋干擾｝
 Buff｛攻擊力ｘ1.5N｝</t>
@@ -755,6 +750,36 @@
         <scheme val="minor"/>
       </rPr>
       <t>｝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>方案一：攻擊會彈刀（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>彈刀動作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+方案二：瘟疫毒素狀態（掉血）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1559,7 +1584,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1674,7 +1699,7 @@
     <row r="18" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="27"/>
@@ -1692,7 +1717,7 @@
     </row>
     <row r="21" spans="3:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="C21" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>23</v>
@@ -1704,61 +1729,61 @@
     </row>
     <row r="22" spans="3:6" ht="63" x14ac:dyDescent="0.25">
       <c r="C22" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C23" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C24" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C25" s="42"/>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="40"/>
     </row>
     <row r="26" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C26" s="42"/>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="40"/>
     </row>
     <row r="27" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C27" s="42"/>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="40"/>
     </row>
     <row r="28" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C28" s="43"/>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" s="40"/>
     </row>
@@ -1767,7 +1792,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E29" s="9"/>
     </row>
@@ -1779,7 +1804,7 @@
     <row r="32" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="27"/>
@@ -1800,28 +1825,28 @@
         <v>21</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="3:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C37" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="38" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/文案/魔素系統Sorcery_System.xlsx
+++ b/文案/魔素系統Sorcery_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7831282-5E88-4A7B-96F5-DE4917107E8F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97DFC7C-52D3-4306-9511-7FBDCF8AE919}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>前言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -572,6 +572,119 @@
   </si>
   <si>
     <r>
+      <t>1.以類似魔物獵人充能斧的瓶數般的數量簡約量化。
+2.一個瓶用小蓄力需要打三次才滿，一套</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>強化軍刀迅斬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消耗一個瓶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+3.可到三女那升級增加瓶數上限（分為</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正常上限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>及</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>超載上限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+4.超載瓶數會以另外一種凸顯樣式顯示在UI上（顏色不一樣啊，或圖案不一樣等）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔素精華</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>買消耗品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>瘟疫毒素狀態（攻擊會掉血）需天賦點開，沒點開強襲狀態下攻擊會</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鳥動作</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>因為有些</t>
     </r>
     <r>
@@ -618,97 +731,14 @@
       </rPr>
       <t>到一定等級。
 1.超載上限等級LV1
-魔素超載到LV3立即死亡
+魔素超載到LV3惡意入侵主角後剩一滴血
 2.超載上限等級LV2
-魔素超載到LV4立即死亡
+魔素超載到LV4惡意入侵主角剩剩一滴血
 3.超載上限等級LV3
-魔素超載到LV5立即死亡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.以類似魔物獵人充能斧的瓶數般的數量簡約量化。
-2.一個瓶用小蓄力需要打三次才滿，一套</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>強化軍刀迅斬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>消耗一個瓶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。
-3.可到三女那升級增加瓶數上限（分為</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>正常上限</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>及</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>超載上限</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）
-4.超載瓶數會以另外一種凸顯樣式顯示在UI上（顏色不一樣啊，或圖案不一樣等）</t>
+魔素超載到LV5惡意入侵主角剩一滴血
+每個狀態增加一等後清光魔素瓶
+會有每個階段的icon顯示依秒數回上一等階段或使用超魔素釋放全部釋放回到正常狀態
+簡單來說就是魔物獵人太刀有debuff狀態然後加了靈視(動態非永久)就是魔素戰鬥系統</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -728,18 +758,18 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>惡意入侵主角自殺動作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>］</t>
+      <t>惡意入侵主角</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>後剩一滴血］</t>
     </r>
     <r>
       <rPr>
@@ -750,36 +780,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>｝</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>方案一：攻擊會彈刀（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>彈刀動作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）
-方案二：瘟疫毒素狀態（掉血）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -854,7 +854,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -879,6 +879,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -1181,7 +1187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1300,6 +1306,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1580,11 +1595,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:F38"/>
+  <dimension ref="C1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1607,7 @@
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="100.42578125" customWidth="1"/>
-    <col min="5" max="5" width="78.28515625" customWidth="1"/>
+    <col min="5" max="5" width="83.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1732,7 +1747,7 @@
         <v>38</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="7"/>
@@ -1752,42 +1767,42 @@
       <c r="C24" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="44" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C25" s="42"/>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="44" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="40"/>
     </row>
     <row r="26" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C26" s="42"/>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="44" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="40"/>
     </row>
     <row r="27" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C27" s="42"/>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="44" t="s">
         <v>42</v>
       </c>
       <c r="E27" s="40"/>
     </row>
     <row r="28" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C28" s="43"/>
-      <c r="D28" s="2" t="s">
-        <v>45</v>
+      <c r="D28" s="44" t="s">
+        <v>48</v>
       </c>
       <c r="E28" s="40"/>
     </row>
-    <row r="29" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" s="22" t="s">
         <v>24</v>
       </c>
@@ -1853,6 +1868,21 @@
       <c r="C38" s="24"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
+    </row>
+    <row r="40" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="45"/>
+      <c r="D41" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="48"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1889,7 +1919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B628BB4C-7719-479D-BF88-76AF5406617E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1903,7 +1935,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1918,10 +1950,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1933,7 +1968,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/文案/魔素系統Sorcery_System.xlsx
+++ b/文案/魔素系統Sorcery_System.xlsx
@@ -3,17 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97DFC7C-52D3-4306-9511-7FBDCF8AE919}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AABF614-004D-4ED0-A508-8BCFD3362728}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="魔素系統概述" sheetId="1" r:id="rId1"/>
     <sheet name="魔素戰鬥" sheetId="2" r:id="rId2"/>
-    <sheet name="魔素天賦成長" sheetId="3" r:id="rId3"/>
-    <sheet name="三女成長系統介面" sheetId="5" r:id="rId4"/>
-    <sheet name="魔素歷程" sheetId="6" r:id="rId5"/>
-    <sheet name="魔素道具" sheetId="4" r:id="rId6"/>
+    <sheet name="魔素道具" sheetId="4" r:id="rId3"/>
+    <sheet name="天賦成長" sheetId="3" r:id="rId4"/>
+    <sheet name="三女天賦成長系統介面" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>前言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新人類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已無</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,125 +107,6 @@
   </si>
   <si>
     <t>概念</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.懲罰條件可能以</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>魔素超載</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(吸收過多魔素)或是</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>魔素匱乏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(消耗太多魔素)作為條件，此點須著重討論。
-2.簡單來說就是</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>怒氣值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>我覺得可以兩個條件都有懲罰，然後可以有個技能或道具是在一定時間內停住這循環。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.懲罰簡單來說就是一個負面狀態（可以魔素容量等級不一樣有不一樣的狀態）
-在</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>成長方面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>就能升級減輕負面效果的被動技能之類的</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -336,157 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>專注姿態</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：鍵位滑鼠RM&lt;蓄力型攻擊&gt;吸取魔素（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>蓄滿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>吸一次足量打一套</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>強化軍刀迅斬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>強襲姿態</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：鍵位滑鼠RM&lt;魔素強化攻擊&gt;釋放魔素（當魔素量不足則跟LM一樣或是做一個</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>怪動作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>看要不要有</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>超魔素釋放</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>這種大絕
-當前瓶數ｘ主角攻擊力的範圍技</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.天賦分為三大類：武器、生存、魔素
-2.魔素這塊天賦將著重於魔素超載和魔素匱乏時的被動效用變化
-3.若有超魔素釋放這招也能增加此技能等級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魔素結晶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -495,52 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>拿</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>魔素結晶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>到三女那使用成長系統。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得方式：每個章節場景會固定N個結晶、BOSS戰勝也會給、商人NPC也有少許能用金幣換、隱藏支線。
-此道具用途只有做技能點用途。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>想一想這樣卡單純</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>戰鬥設定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -558,10 +237,6 @@
   </si>
   <si>
     <t>魔素超載</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔素天賦成長</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -666,7 +341,8 @@
   </si>
   <si>
     <r>
-      <t>瘟疫毒素狀態（攻擊會掉血）需天賦點開，沒點開強襲狀態下攻擊會</t>
+      <t>LV5：
+Debuff｛死亡［</t>
     </r>
     <r>
       <rPr>
@@ -679,8 +355,236 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>鳥動作</t>
-    </r>
+      <t>惡意入侵主角</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>後剩一滴血］</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>｝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>專注姿態</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：鍵位滑鼠RM&lt;蓄力型攻擊&gt;吸取魔素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>強襲姿態</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：鍵位滑鼠RM&lt;魔素強化攻擊&gt;釋放魔素</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>蓄滿吸一次足量打一套強化軍刀迅斬，每把武器有不同的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>超魔素釋放武器技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>這種大絕
+當前瓶數ｘ主角攻擊力的技能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>取得方式：打特定怪物、BOSS戰勝也會給、商人NPC也有少許能用金幣換、隱藏支線。
+魔素結晶也可能當消耗信道具使用
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>兩種方案待議。一、使用增加魔素瓶數。二、使用增加魔素精華。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>魔素天賦成長方面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>能升級減輕負面效果的被動技能或增加正面效益的被動技能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天賦成長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.天賦分為：武器、魔素。
+2.不管是武器或魔素的天賦升級一點，都視為角色等級提升，角色體質也相對應的提升。
+3.魔素這塊天賦將著重於魔素超載和魔素匱乏時的被動效用變化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.拿</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>魔素結晶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到三女那使用成長系統升級魔素。
+2.個把武器會各種技能會有特定條件解鎖升級
+（例如：熟練度、拿這武器擊殺特定怪、武器任務等等……）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用武器熟練度升級條件，玩家在成長策略的考量就會每把武器都去玩，達到每把的初階升級條件來增加角色等級，進而提升角色體質。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待討論</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人類（新）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -729,7 +633,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>到一定等級。
+      <t xml:space="preserve">到一定等級。
 1.超載上限等級LV1
 魔素超載到LV3惡意入侵主角後剩一滴血
 2.超載上限等級LV2
@@ -737,15 +641,29 @@
 3.超載上限等級LV3
 魔素超載到LV5惡意入侵主角剩一滴血
 每個狀態增加一等後清光魔素瓶
-會有每個階段的icon顯示依秒數回上一等階段或使用超魔素釋放全部釋放回到正常狀態
-簡單來說就是魔物獵人太刀有debuff狀態然後加了靈視(動態非永久)就是魔素戰鬥系統</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LV5：
-Debuff｛死亡［</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>簡單來說就是魔物獵人太刀有debuff狀態然後加了靈視(動態非永久)就是魔素戰鬥系統</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每個階段不只有debuff&amp;buff的icon顯示，還會有魔素超載的狀態等級icon顯示，依狀態時間回到上一等階段，而使用超魔素釋放技能將魔素超載等級與魔素瓶歸0。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>瘟疫毒素狀態｛強襲姿態［</t>
     </r>
     <r>
       <rPr>
@@ -758,29 +676,22 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>惡意入侵主角</t>
+      <t>怪動作</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>後剩一滴血］</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>｝</t>
-    </r>
+      <t>或可攻擊但會掉血（需天賦點開）］｝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒有固定數量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,7 +699,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -800,14 +711,6 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -1187,7 +1090,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1217,26 +1120,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1249,63 +1151,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1315,6 +1160,69 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1330,6 +1238,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE9662CF-C3E9-493B-8AF6-389CF8895EB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="295275"/>
+          <a:ext cx="9391650" cy="6429375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1595,11 +1558,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:F42"/>
+  <dimension ref="C1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <pane ySplit="8" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1607,282 +1570,271 @@
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="100.42578125" customWidth="1"/>
-    <col min="5" max="5" width="83.42578125" customWidth="1"/>
+    <col min="5" max="5" width="86.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
     </row>
     <row r="9" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="3:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C15" s="22" t="s">
-        <v>12</v>
+      <c r="C15" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
+      <c r="C19" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="19" t="s">
+      <c r="C20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="C21" s="22" t="s">
+    <row r="21" spans="3:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="3:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="C22" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C23" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C24" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C25" s="48"/>
+      <c r="D25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="46"/>
+    </row>
+    <row r="26" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C26" s="48"/>
+      <c r="D26" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="46"/>
+    </row>
+    <row r="27" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C27" s="48"/>
+      <c r="D27" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="46"/>
+    </row>
+    <row r="28" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C28" s="49"/>
+      <c r="D28" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="E28" s="46"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="3:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="C22" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C23" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C24" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C25" s="42"/>
-      <c r="D25" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="40"/>
-    </row>
-    <row r="26" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C26" s="42"/>
-      <c r="D26" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="40"/>
-    </row>
-    <row r="27" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C27" s="42"/>
-      <c r="D27" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="40"/>
-    </row>
-    <row r="28" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C28" s="43"/>
-      <c r="D28" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="40"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="22" t="s">
-        <v>24</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E29" s="9"/>
     </row>
     <row r="30" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="23"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="12"/>
       <c r="E30" s="11"/>
     </row>
     <row r="32" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
+      <c r="C33" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="33"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C35" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C35" s="22" t="s">
-        <v>21</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="3:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C37" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>35</v>
+    <row r="36" spans="3:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C36" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C37" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="24"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
-    </row>
-    <row r="40" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="45"/>
-      <c r="D41" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="48"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1916,26 +1868,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B628BB4C-7719-479D-BF88-76AF5406617E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670FF69D-E74B-4745-B133-C8DE114607A6}">
+  <dimension ref="B1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A5EE33-9614-4114-A976-A2FBC7C0753C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B628BB4C-7719-479D-BF88-76AF5406617E}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1946,34 +1916,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B5912E-3324-43F8-BC34-A08A787FCF45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A5EE33-9614-4114-A976-A2FBC7C0753C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670FF69D-E74B-4745-B133-C8DE114607A6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/文案/魔素系統Sorcery_System.xlsx
+++ b/文案/魔素系統Sorcery_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AABF614-004D-4ED0-A508-8BCFD3362728}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18368E5B-8917-4BC6-81CE-43E6D6FA8AA4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在本作的時代中了瘟疫的話是無法活下去。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>類別</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -692,6 +688,10 @@
   </si>
   <si>
     <t>沒有固定數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本作的時代中了瘟疫的話是無法活下去。(有個劇本階段沒神髓的人類全部重了瘟疫)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1160,6 +1160,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1216,12 +1222,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1561,8 +1561,8 @@
   <dimension ref="C1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1577,40 +1577,40 @@
     <row r="1" spans="3:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="9" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>3</v>
@@ -1649,12 +1649,12 @@
         <v>11</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="3:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C15" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>14</v>
@@ -1676,15 +1676,15 @@
     </row>
     <row r="18" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
+      <c r="C19" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>3</v>
@@ -1695,84 +1695,84 @@
     </row>
     <row r="21" spans="3:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="C21" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="3:6" ht="63" x14ac:dyDescent="0.25">
       <c r="C22" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C23" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C24" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C24" s="47" t="s">
+      <c r="D24" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C25" s="50"/>
+      <c r="D25" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="48"/>
+    </row>
+    <row r="26" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C26" s="50"/>
+      <c r="D26" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="48"/>
+    </row>
+    <row r="27" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C27" s="50"/>
+      <c r="D27" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C25" s="48"/>
-      <c r="D25" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="46"/>
-    </row>
-    <row r="26" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C26" s="48"/>
-      <c r="D26" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="46"/>
-    </row>
-    <row r="27" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C27" s="48"/>
-      <c r="D27" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="46"/>
+      <c r="E27" s="48"/>
     </row>
     <row r="28" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C28" s="49"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="46"/>
+        <v>36</v>
+      </c>
+      <c r="E28" s="48"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="9"/>
     </row>
@@ -1783,15 +1783,15 @@
     </row>
     <row r="32" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
+      <c r="C33" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>3</v>
@@ -1802,33 +1802,33 @@
     </row>
     <row r="35" spans="3:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C35" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="3:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C36" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="32" t="s">
         <v>44</v>
-      </c>
-      <c r="E36" s="51" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="37" spans="3:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C37" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1880,13 +1880,13 @@
     <row r="1" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/文案/魔素系統Sorcery_System.xlsx
+++ b/文案/魔素系統Sorcery_System.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18368E5B-8917-4BC6-81CE-43E6D6FA8AA4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6147E03-4EA6-4AB2-BAE3-0AB09397640D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>前言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>概念</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魔素劑量表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -524,12 +520,6 @@
   </si>
   <si>
     <t>天賦成長</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.天賦分為：武器、魔素。
-2.不管是武器或魔素的天賦升級一點，都視為角色等級提升，角色體質也相對應的提升。
-3.魔素這塊天賦將著重於魔素超載和魔素匱乏時的被動效用變化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -694,12 +684,268 @@
     <t>在本作的時代中了瘟疫的話是無法活下去。(有個劇本階段沒神髓的人類全部重了瘟疫)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>弱點</t>
+  </si>
+  <si>
+    <t>布甲</t>
+  </si>
+  <si>
+    <t>輕甲</t>
+  </si>
+  <si>
+    <t>鎧甲</t>
+  </si>
+  <si>
+    <t>護盾</t>
+  </si>
+  <si>
+    <t>斬擊</t>
+  </si>
+  <si>
+    <t>刺擊</t>
+  </si>
+  <si>
+    <t>打擊</t>
+  </si>
+  <si>
+    <t>魔素</t>
+  </si>
+  <si>
+    <t>護盾規則</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>護盾存在期間</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>物理減傷、霸體
+回復方式</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>無法自然回復，玩家透過消耗魔素換取護盾</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>一個招式</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>破盾時</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>破盾時會強制產生一個大後仰</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>補充</t>
+  </si>
+  <si>
+    <t>升級項目</t>
+  </si>
+  <si>
+    <t>1.護盾量up、魔素消耗量up
+2.魔素消耗量減少
+3.護盾存在期間額外BUFF
+4.破盾懲罰減輕、破盾時額外效果</t>
+  </si>
+  <si>
+    <t>1.天賦分為：武器、魔素。
+2.不管是武器或魔素的天賦升級一點，都視為角色等級提升，角色體質也相對應的提升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">魔素量獲得方式非搶奪方式，更改為固定獲得。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>例如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>技能命中就是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>魔素</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,6 +1002,42 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -789,7 +1071,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1056,18 +1338,208 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
@@ -1075,13 +1547,99 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1090,7 +1648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1109,23 +1667,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1151,9 +1697,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1166,6 +1709,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1211,17 +1796,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1241,6 +1886,74 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4663440</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>27626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5EB94F8-3BCE-49A6-A9C8-2E83F46EF54E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1607820" y="4472939"/>
+          <a:ext cx="4610100" cy="5041587"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="127000" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="50800" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1558,11 +2271,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:F38"/>
+  <dimension ref="C1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1577,50 +2290,50 @@
     <row r="1" spans="3:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
     </row>
     <row r="9" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1631,7 +2344,7 @@
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1642,19 +2355,19 @@
       </c>
     </row>
     <row r="14" spans="3:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="3:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C15" s="21" t="s">
-        <v>46</v>
+      <c r="C15" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>14</v>
@@ -1664,7 +2377,7 @@
       </c>
     </row>
     <row r="16" spans="3:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1675,195 +2388,603 @@
       </c>
     </row>
     <row r="18" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="33" t="s">
+    <row r="19" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="17" t="s">
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+    </row>
+    <row r="20" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="21" t="s">
+    <row r="21" spans="3:6" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="3:6" ht="63" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="D22" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="3:6" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="58"/>
+      <c r="D25" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="57"/>
+    </row>
+    <row r="26" spans="3:6" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="58"/>
+      <c r="D26" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="57"/>
+    </row>
+    <row r="27" spans="3:6" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="58"/>
+      <c r="D27" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="57"/>
+    </row>
+    <row r="28" spans="3:6" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="58"/>
+      <c r="D28" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="57"/>
+    </row>
+    <row r="29" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="29"/>
+    </row>
+    <row r="30" spans="3:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="30"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="59"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="65"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="66"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="66"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="66"/>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="61"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="66"/>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="61"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="66"/>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="61"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="66"/>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="61"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="66"/>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="61"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="66"/>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="61"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="66"/>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="61"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="66"/>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="61"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="66"/>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="61"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="66"/>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="61"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="66"/>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="61"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="66"/>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="61"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="66"/>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="61"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="66"/>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="61"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="66"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="61"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="66"/>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="61"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="66"/>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51" s="61"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="66"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="61"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="66"/>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="61"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="66"/>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="61"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="66"/>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="61"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="66"/>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="61"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="66"/>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="61"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="66"/>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="61"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="66"/>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="61"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="66"/>
+    </row>
+    <row r="60" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="63"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="67"/>
+    </row>
+    <row r="61" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="3:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="C22" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="D62" s="43"/>
+      <c r="E62" s="44"/>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C64" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="3:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C65" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C66" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C23" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C24" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C25" s="50"/>
-      <c r="D25" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="48"/>
-    </row>
-    <row r="26" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C26" s="50"/>
-      <c r="D26" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="48"/>
-    </row>
-    <row r="27" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C27" s="50"/>
-      <c r="D27" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="48"/>
-    </row>
-    <row r="28" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C28" s="51"/>
-      <c r="D28" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="48"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="22"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="32" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="35"/>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C35" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="3:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C36" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C37" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="23"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
+    </row>
+    <row r="67" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="19"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C33:E33"/>
+  <mergeCells count="9">
+    <mergeCell ref="C62:E62"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E6"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="E24:E28"/>
     <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C31:D60"/>
+    <mergeCell ref="E31:E60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9AA240E-8599-4A51-A08C-BE95DBD2B3C3}">
-  <dimension ref="A1"/>
+  <dimension ref="C1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="C5" s="34"/>
+      <c r="D5" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="C6" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="E6" s="33">
+        <v>1</v>
+      </c>
+      <c r="F6" s="33">
+        <v>1</v>
+      </c>
+      <c r="G6" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="38">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="C7" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="33">
+        <v>1.4</v>
+      </c>
+      <c r="E7" s="33">
+        <v>1</v>
+      </c>
+      <c r="F7" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="38">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="C8" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="E8" s="33">
+        <v>1</v>
+      </c>
+      <c r="F8" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="33">
+        <v>1</v>
+      </c>
+      <c r="H8" s="38">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="40">
+        <v>1</v>
+      </c>
+      <c r="E9" s="40">
+        <v>1</v>
+      </c>
+      <c r="F9" s="40">
+        <v>1</v>
+      </c>
+      <c r="G9" s="40">
+        <v>1</v>
+      </c>
+      <c r="H9" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="3:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
+      <c r="J12" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="70"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="73"/>
+      <c r="J13" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="73"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="74"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="76"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="76"/>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="76"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="74"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="76"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="76"/>
+    </row>
+    <row r="17" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="77"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="79"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="79"/>
+    </row>
+    <row r="19" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="3:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="70"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="74"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="76"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="76"/>
+    </row>
+    <row r="25" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="77"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="79"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H17"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G25"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J13:O17"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1872,27 +2993,27 @@
   <dimension ref="B1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="3" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/文案/魔素系統Sorcery_System.xlsx
+++ b/文案/魔素系統Sorcery_System.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6147E03-4EA6-4AB2-BAE3-0AB09397640D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18204F91-B6B8-422C-97C8-5EEEE4855378}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="魔素系統概述" sheetId="1" r:id="rId1"/>
-    <sheet name="魔素戰鬥" sheetId="2" r:id="rId2"/>
-    <sheet name="魔素道具" sheetId="4" r:id="rId3"/>
-    <sheet name="天賦成長" sheetId="3" r:id="rId4"/>
-    <sheet name="三女天賦成長系統介面" sheetId="5" r:id="rId5"/>
+    <sheet name="武器特色" sheetId="6" r:id="rId2"/>
+    <sheet name="魔素戰鬥" sheetId="2" r:id="rId3"/>
+    <sheet name="魔素道具" sheetId="4" r:id="rId4"/>
+    <sheet name="天賦成長" sheetId="3" r:id="rId5"/>
+    <sheet name="三女天賦成長系統介面" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>前言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -938,6 +939,23 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>軍刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>軍刀設計更改為
+A沒有狀態切換
+B長按右鍵後左鍵=五連斬
+C魔素量夠的五連斬是魔素強化無敵狀態
+D以放招後的特效區分五連斬效用
+E玩家自行注意魔素量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>軍倒回魔素和耗魔素的技能數量比例為1:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1648,7 +1666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1867,6 +1885,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2273,9 +2297,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2719,6 +2743,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AFC5BB-E7A2-409B-8576-52BCFCC65485}">
+  <dimension ref="B3:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9AA240E-8599-4A51-A08C-BE95DBD2B3C3}">
   <dimension ref="C1:O25"/>
   <sheetViews>
@@ -2988,7 +3044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670FF69D-E74B-4745-B133-C8DE114607A6}">
   <dimension ref="B1:D3"/>
   <sheetViews>
@@ -3021,7 +3077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B628BB4C-7719-479D-BF88-76AF5406617E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3036,7 +3092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A5EE33-9614-4114-A976-A2FBC7C0753C}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/文案/魔素系統Sorcery_System.xlsx
+++ b/文案/魔素系統Sorcery_System.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18204F91-B6B8-422C-97C8-5EEEE4855378}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4973571-46F1-4E3E-B4F0-1DD771FE4A51}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="魔素系統概述" sheetId="1" r:id="rId1"/>
     <sheet name="武器特色" sheetId="6" r:id="rId2"/>
-    <sheet name="魔素戰鬥" sheetId="2" r:id="rId3"/>
-    <sheet name="魔素道具" sheetId="4" r:id="rId4"/>
-    <sheet name="天賦成長" sheetId="3" r:id="rId5"/>
-    <sheet name="三女天賦成長系統介面" sheetId="5" r:id="rId6"/>
+    <sheet name="魔素循環歷程" sheetId="7" r:id="rId3"/>
+    <sheet name="魔素戰鬥" sheetId="2" r:id="rId4"/>
+    <sheet name="魔素道具" sheetId="4" r:id="rId5"/>
+    <sheet name="天賦成長" sheetId="3" r:id="rId6"/>
+    <sheet name="三女天賦成長系統介面" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -1769,6 +1770,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1885,12 +1892,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1978,6 +1979,61 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>92756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D71B975-94FC-422D-A0CB-DF45426A29E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="390525"/>
+          <a:ext cx="10058400" cy="6303056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2298,7 +2354,7 @@
   <dimension ref="C1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
@@ -2314,36 +2370,36 @@
     <row r="1" spans="3:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
     </row>
     <row r="6" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
     </row>
     <row r="9" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" s="13" t="s">
@@ -2413,11 +2469,11 @@
     </row>
     <row r="18" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C20" s="13" t="s">
@@ -2466,43 +2522,43 @@
       </c>
     </row>
     <row r="24" spans="3:6" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="60" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="59" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="3:6" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="58"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="57"/>
+      <c r="E25" s="59"/>
     </row>
     <row r="26" spans="3:6" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="58"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="57"/>
+      <c r="E26" s="59"/>
     </row>
     <row r="27" spans="3:6" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="58"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="57"/>
+      <c r="E27" s="59"/>
     </row>
     <row r="28" spans="3:6" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="58"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="57"/>
+      <c r="E28" s="59"/>
     </row>
     <row r="29" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C29" s="32" t="s">
@@ -2519,162 +2575,162 @@
       <c r="E30" s="9"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="59"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="65"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="67"/>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="66"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="68"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="61"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="66"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="68"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="61"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="66"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="68"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="61"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="66"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="68"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="61"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="66"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="68"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="61"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="66"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="68"/>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="61"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="66"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="68"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="61"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="66"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="68"/>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="61"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="66"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="68"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="61"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="66"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="68"/>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="61"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="66"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="68"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="61"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="66"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="68"/>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C44" s="61"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="66"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="68"/>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="61"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="66"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="68"/>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="61"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="66"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="68"/>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="61"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="66"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="68"/>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C48" s="61"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="66"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="68"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="61"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="66"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="68"/>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="61"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="66"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="68"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="61"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="66"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="68"/>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="61"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="66"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="68"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="61"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="66"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="68"/>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="61"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="66"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="68"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="61"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="66"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="68"/>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="61"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="66"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="68"/>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="61"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="66"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="68"/>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C58" s="61"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="66"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="68"/>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="61"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="66"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="68"/>
     </row>
     <row r="60" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="63"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="67"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="69"/>
     </row>
     <row r="61" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C62" s="42" t="s">
+      <c r="C62" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D62" s="43"/>
-      <c r="E62" s="44"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="46"/>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C63" s="13" t="s">
@@ -2746,8 +2802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AFC5BB-E7A2-409B-8576-52BCFCC65485}">
   <dimension ref="B3:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2757,13 +2813,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="43" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2775,6 +2831,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE3C161-687B-48E4-8092-C94784F6BC9E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9AA240E-8599-4A51-A08C-BE95DBD2B3C3}">
   <dimension ref="C1:O25"/>
   <sheetViews>
@@ -2891,143 +2964,143 @@
     </row>
     <row r="11" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="3:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="70"/>
-      <c r="J12" s="68" t="s">
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="72"/>
+      <c r="J12" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="70"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="72"/>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="73"/>
-      <c r="J13" s="80" t="s">
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="75"/>
+      <c r="J13" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="73"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="75"/>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="74"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="76"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="78"/>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="78"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="78"/>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="78"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="78"/>
     </row>
     <row r="17" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="77"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="79"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="81"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="81"/>
     </row>
     <row r="19" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="3:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="70"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="73"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="75"/>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="74"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78"/>
     </row>
     <row r="25" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3044,7 +3117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670FF69D-E74B-4745-B133-C8DE114607A6}">
   <dimension ref="B1:D3"/>
   <sheetViews>
@@ -3077,7 +3150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B628BB4C-7719-479D-BF88-76AF5406617E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3092,7 +3165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A5EE33-9614-4114-A976-A2FBC7C0753C}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/文案/魔素系統Sorcery_System.xlsx
+++ b/文案/魔素系統Sorcery_System.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4973571-46F1-4E3E-B4F0-1DD771FE4A51}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58918E9E-3FBF-4F34-BCF7-4031B23EA4DC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="魔素系統概述" sheetId="1" r:id="rId1"/>
@@ -2353,7 +2353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
@@ -2834,7 +2834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE3C161-687B-48E4-8092-C94784F6BC9E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
